--- a/data/trans_dic/P1417-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1417-Dificultad-trans_dic.xlsx
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001066733247261714</v>
+        <v>0.00105416954616786</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001802053535548424</v>
+        <v>0.001782764157012944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01149302545683074</v>
+        <v>0.01119635535350472</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02281425683679589</v>
+        <v>0.0224056297233309</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02623184671077004</v>
+        <v>0.02686101309458859</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02237022528335124</v>
+        <v>0.0228563459006281</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06228865162193086</v>
+        <v>0.06191122752376095</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01461449506790176</v>
+        <v>0.01487608485733524</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01587490149463953</v>
+        <v>0.01525534696264286</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0137473912271453</v>
+        <v>0.01372711385071763</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04163521618352883</v>
+        <v>0.042144051181898</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.008544418465090665</v>
+        <v>0.009882415504027681</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01004484512198888</v>
+        <v>0.0103081960887893</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01232259062734918</v>
+        <v>0.01148872782658036</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03622556186671835</v>
+        <v>0.03584260156223163</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04832878685328425</v>
+        <v>0.04747048271852766</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04950815306774634</v>
+        <v>0.04964874914910425</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04228879800805224</v>
+        <v>0.04190050716814042</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.101970840705895</v>
+        <v>0.1011386927413656</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0305356737704033</v>
+        <v>0.0308621667018522</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02941788465058856</v>
+        <v>0.02828444505384606</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02545912340604103</v>
+        <v>0.02561025429201941</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06758128961990566</v>
+        <v>0.06692746178120239</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001803391183910418</v>
+        <v>0.001798557327652966</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001001035603747265</v>
+        <v>0.00100698484100043</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003061025786880567</v>
+        <v>0.003024526196852869</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.008952585139138498</v>
+        <v>0.008317659755983184</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.006602783710355787</v>
+        <v>0.006651155581725701</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01313765327095918</v>
+        <v>0.01310700822087123</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01043246826514165</v>
+        <v>0.01040887861536218</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03043189243859482</v>
+        <v>0.0297033089160184</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.005166220665346569</v>
+        <v>0.00536047911056973</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.008309594141713623</v>
+        <v>0.008207978607105986</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.008302864653391733</v>
+        <v>0.008317869867030491</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02180492856014134</v>
+        <v>0.02158167374829366</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01135807198250834</v>
+        <v>0.01204369713851597</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.008396848425339085</v>
+        <v>0.009257651754944295</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0137820346016224</v>
+        <v>0.01473087156587409</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02185157807149946</v>
+        <v>0.02119293202072388</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02038150702751313</v>
+        <v>0.02085538902325196</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02936963422271657</v>
+        <v>0.03026605769203776</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02708561403179729</v>
+        <v>0.02610335978349294</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04952620024799795</v>
+        <v>0.04887671902813288</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01336107556424847</v>
+        <v>0.01330139698259936</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01760152619706671</v>
+        <v>0.01768444785306084</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01822695371098618</v>
+        <v>0.01832616862882536</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03367362317587849</v>
+        <v>0.03362147460709873</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.004798362523349974</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.009361003963689845</v>
+        <v>0.009361003963689843</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.007924260520845206</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001564057194065922</v>
+        <v>0.0008914754072933967</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002275170407141453</v>
+        <v>0.00231905709181975</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001254999981669217</v>
+        <v>0.001252687244596949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.005035784753783265</v>
+        <v>0.005066520484834775</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.003539016818016205</v>
+        <v>0.003479822239692679</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01322184785675893</v>
+        <v>0.01397447386160091</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01381436535718757</v>
+        <v>0.01456069992300541</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02520644053180499</v>
+        <v>0.02451106648786921</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.003032380068786044</v>
+        <v>0.003197568735385143</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.008765663122239652</v>
+        <v>0.009257152494466422</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.008696984828176733</v>
+        <v>0.008963632804844074</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01650245425943791</v>
+        <v>0.01677100699307882</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01122201864732058</v>
+        <v>0.01016494144943036</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01443026087609709</v>
+        <v>0.01356336549048755</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01190242280548286</v>
+        <v>0.01171121548821426</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0157934510468592</v>
+        <v>0.01576899740484104</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01516774731424888</v>
+        <v>0.01427931449290202</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03498327454755341</v>
+        <v>0.03506945277721681</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03516033722843354</v>
+        <v>0.03694414178316451</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04259258100049847</v>
+        <v>0.04347638592489926</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.009633774783039688</v>
+        <v>0.01003237789272331</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02101660850509938</v>
+        <v>0.02195245294680105</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02161421964497509</v>
+        <v>0.02132246167183682</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02677856581182604</v>
+        <v>0.02753426221037704</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.02390256643190766</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.04482244279031078</v>
+        <v>0.04482244279031079</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.009286730246611329</v>
@@ -1122,34 +1122,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0017775199599416</v>
+        <v>0.001781680041828346</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005355175740323966</v>
+        <v>0.005814181696039103</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.006176296971555539</v>
+        <v>0.005622788301223499</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0161001832380032</v>
+        <v>0.01612539712344378</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01137737044044178</v>
+        <v>0.0127277532381604</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03388121566648573</v>
+        <v>0.0334354587688397</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.003822180576211131</v>
+        <v>0.003945369370649572</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.00959470258321409</v>
+        <v>0.009092956634378369</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.007722818855197371</v>
+        <v>0.008630368390511928</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02068616729282039</v>
+        <v>0.02040667502058544</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01338666878977651</v>
+        <v>0.01323323791652915</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01294167038634967</v>
+        <v>0.01430524984119238</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01615525067516558</v>
+        <v>0.0164552627854913</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01883408461854546</v>
+        <v>0.0180233778321889</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03904300293072404</v>
+        <v>0.03808307227117609</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0506158358416584</v>
+        <v>0.05259856090479673</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04309137670116205</v>
+        <v>0.04184457448392251</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05959883379812685</v>
+        <v>0.05863711516500544</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0178458335346826</v>
+        <v>0.01874553573594577</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02681831155599298</v>
+        <v>0.0256746080225354</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02422859209248691</v>
+        <v>0.0266129357143578</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03514816771039111</v>
+        <v>0.03526928009203072</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.0153711766351737</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.02951789164848569</v>
+        <v>0.0295178916484857</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002379622728420754</v>
+        <v>0.002295388656236857</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002654044032966708</v>
+        <v>0.002648998763439443</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003458586372505847</v>
+        <v>0.003600700827741794</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.009486736665601903</v>
+        <v>0.00988616748637214</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01284841828898507</v>
+        <v>0.01259448349071274</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02223203854325981</v>
+        <v>0.02187466663764939</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02015051233187797</v>
+        <v>0.0201785596216665</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03988698989278279</v>
+        <v>0.04009143250819557</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.008145189934293744</v>
+        <v>0.008369366199495618</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01329642481646475</v>
+        <v>0.01324764702276321</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01267865284972252</v>
+        <v>0.01252278917889068</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02634558686515657</v>
+        <v>0.02630486184660199</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.007411417562427016</v>
+        <v>0.007123180112831203</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.00718531136070328</v>
+        <v>0.007123985041879707</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.008908689039532474</v>
+        <v>0.008931001707025585</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01651829203695197</v>
+        <v>0.01641847471458493</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02199579691218699</v>
+        <v>0.02192345409504024</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03323100137102881</v>
+        <v>0.03309769145108683</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03085609764339864</v>
+        <v>0.03081518621462395</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05169541415776151</v>
+        <v>0.05242240434915543</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01342409132772645</v>
+        <v>0.01328476205678691</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01963388843539074</v>
+        <v>0.01929807879694884</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01879728762887129</v>
+        <v>0.01871284948501442</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0334908811738578</v>
+        <v>0.03333096253851931</v>
       </c>
     </row>
     <row r="19">
@@ -1603,37 +1603,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2033</v>
+        <v>2011</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5707</v>
+        <v>5559</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>21042</v>
+        <v>20665</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>29344</v>
+        <v>30048</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>28177</v>
+        <v>28789</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>38802</v>
+        <v>38567</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>22016</v>
+        <v>22410</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>34331</v>
+        <v>32991</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>32823</v>
+        <v>32774</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>46610</v>
+        <v>47179</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4991</v>
+        <v>5773</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10486</v>
+        <v>10761</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13900</v>
+        <v>12959</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17987</v>
+        <v>17797</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>44575</v>
+        <v>43784</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>55382</v>
+        <v>55540</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>53265</v>
+        <v>52776</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>63521</v>
+        <v>63003</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>46001</v>
+        <v>46493</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>63619</v>
+        <v>61168</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>60785</v>
+        <v>61146</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>75655</v>
+        <v>74923</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2782</v>
+        <v>2749</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8596</v>
+        <v>7986</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6983</v>
+        <v>7034</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14351</v>
+        <v>14317</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10500</v>
+        <v>10476</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>33917</v>
+        <v>33105</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11032</v>
+        <v>11447</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>17196</v>
+        <v>16986</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>15902</v>
+        <v>15931</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>45238</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12243</v>
+        <v>12982</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8204</v>
+        <v>9045</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12525</v>
+        <v>13388</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20981</v>
+        <v>20348</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>21554</v>
+        <v>22055</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>32081</v>
+        <v>33060</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27261</v>
+        <v>26272</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>55199</v>
+        <v>54475</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>28532</v>
+        <v>28404</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>36425</v>
+        <v>36596</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>34910</v>
+        <v>35100</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>69862</v>
+        <v>69753</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1754</v>
+        <v>1000</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2014</v>
+        <v>2053</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5265</v>
+        <v>5297</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3518</v>
+        <v>3459</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11566</v>
+        <v>12224</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10652</v>
+        <v>11227</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>26368</v>
+        <v>25641</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6415</v>
+        <v>6765</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>15426</v>
+        <v>16291</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>13870</v>
+        <v>14295</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>34516</v>
+        <v>35078</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12587</v>
+        <v>11401</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12772</v>
+        <v>12005</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9805</v>
+        <v>9647</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16512</v>
+        <v>16486</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15076</v>
+        <v>14193</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>30602</v>
+        <v>30677</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>27111</v>
+        <v>28486</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>44556</v>
+        <v>45480</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20381</v>
+        <v>21224</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>36986</v>
+        <v>38633</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>34471</v>
+        <v>34005</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>56009</v>
+        <v>57590</v>
       </c>
     </row>
     <row r="16">
@@ -2146,34 +2146,34 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5219</v>
+        <v>5666</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2107</v>
+        <v>1918</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7289</v>
+        <v>7301</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5571</v>
+        <v>6233</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>30727</v>
+        <v>30323</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>9170</v>
+        <v>8691</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>7695</v>
+        <v>8599</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>38920</v>
+        <v>38394</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5987</v>
+        <v>5918</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6510</v>
+        <v>7196</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8186</v>
+        <v>8338</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18355</v>
+        <v>17565</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>13320</v>
+        <v>12992</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22916</v>
+        <v>23813</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>21102</v>
+        <v>20491</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>54050</v>
+        <v>53178</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>14069</v>
+        <v>14778</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>25632</v>
+        <v>24539</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>24141</v>
+        <v>26517</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>66130</v>
+        <v>66358</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7688</v>
+        <v>7416</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9048</v>
+        <v>9031</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11646</v>
+        <v>12125</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>32983</v>
+        <v>34371</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>42592</v>
+        <v>41750</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>78667</v>
+        <v>77403</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>71067</v>
+        <v>71166</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>147201</v>
+        <v>147956</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>53317</v>
+        <v>54784</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>92378</v>
+        <v>92039</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>87408</v>
+        <v>86333</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>188823</v>
+        <v>188531</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23945</v>
+        <v>23014</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>24496</v>
+        <v>24287</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>29998</v>
+        <v>30073</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>57429</v>
+        <v>57082</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>72915</v>
+        <v>72676</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>117587</v>
+        <v>117115</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>108823</v>
+        <v>108679</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>190780</v>
+        <v>193463</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>87871</v>
+        <v>86959</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>136409</v>
+        <v>134076</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>129590</v>
+        <v>129008</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>240035</v>
+        <v>238889</v>
       </c>
     </row>
     <row r="24">
